--- a/biology/Botanique/Tillandsia_chaetophylla/Tillandsia_chaetophylla.xlsx
+++ b/biology/Botanique/Tillandsia_chaetophylla/Tillandsia_chaetophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia chaetophylla Mez est une plante de la famille des Bromeliaceae.
 L'épithète chaetophylla signifie « à feuilles comme des soies » .
@@ -512,14 +524,16 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia chaetophylla Mez in C.DC., Monogr. Phan. 9: 726, n° 68 (1896)
-Diagnose originale[1] :
+Diagnose originale :
 « foliis permultis dense fasciculatis, totis tenuissime filiformibus, dense lepidibus conspicuis, peradpressis obtectis ; inflorescentia perpauciflora, simplicissima, optime disticha, dense flabellata ; bracteis imbricatis, apicem haud incurvum versus carinatis, sepala superantibus; floribus stricte erectis ; sepalis antico libero, posticis binis ad 13 mm connatis. »
 Type :
-Mez[1] cite plusieurs spécimens différents sans désigner explicitement d'holotype : "Mexico, loco ignoto : Jurgensenn. 13, Karwinsky, Pavon. (V. s. in herb. Mus. Brit., Florent., Monac, Vindob.)"
-Lectotypus BM (in Herb. Pavon)[2].</t>
+Mez cite plusieurs spécimens différents sans désigner explicitement d'holotype : "Mexico, loco ignoto : Jurgensenn. 13, Karwinsky, Pavon. (V. s. in herb. Mus. Brit., Florent., Monac, Vindob.)"
+Lectotypus BM (in Herb. Pavon).</t>
         </is>
       </c>
     </row>
@@ -549,10 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-(aucune)
-Synonymie taxonomique
-Tillandsia subulata E.Morren ex Baker non Vell[2],[3].</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
         </is>
       </c>
     </row>
@@ -577,10 +594,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tillandsia subulata E.Morren ex Baker non Vell,.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,16 +630,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Biotype : plante herbacée en rosette monocarpique par ses rejets latéraux ; épiphyte[1],[4].
-Habitat : zones forestières[4],[3].
-Altitude : 1700-2200m[4].</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -635,17 +658,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique centrale :
- Mexique[1]
-México[2]
-Michoacán[2]
-Oaxaca[2]
-Puebla[3]</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Biotype : plante herbacée en rosette monocarpique par ses rejets latéraux ; épiphyte,.
+Habitat : zones forestières,.
+Altitude : 1700-2200m.</t>
         </is>
       </c>
     </row>
@@ -670,12 +692,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amérique centrale :
+ Mexique
+México
+Michoacán
+Oaxaca
+Puebla</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_chaetophylla</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_chaetophylla</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia chaetophylla est de culture facile et de croissance rapide[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia chaetophylla est de culture facile et de croissance rapide.
 </t>
         </is>
       </c>
